--- a/documentation/Brogrammers 2.0.2_Deliverable_3_SprintBacklog_5.xlsx
+++ b/documentation/Brogrammers 2.0.2_Deliverable_3_SprintBacklog_5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Story Points Completed by member participation</t>
   </si>
@@ -52,67 +52,61 @@
     <t>Day 5</t>
   </si>
   <si>
-    <t>00019</t>
+    <t>00018</t>
   </si>
   <si>
-    <t>Main Menu</t>
+    <t>Graphics</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
-    <t>As a &lt;player&gt;, I need to &lt;have a main menu&gt;, because I want to &lt;select different options&gt;.</t>
+    <t>As a &lt;player&gt;, I need to &lt;have graphics&gt; , because I want to &lt;see what I'm doing&gt;.</t>
   </si>
   <si>
     <t>F (functional), T (technical)</t>
   </si>
   <si>
-    <t>Level Select Button</t>
+    <t>Move sprite</t>
   </si>
   <si>
-    <t>17</t>
+    <t>30</t>
   </si>
   <si>
-    <t>17 (Jason)</t>
+    <t>5 (Louis)</t>
+  </si>
+  <si>
+    <t>10 (Louis)</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Tutorial Button</t>
+    <t>Command pallete</t>
   </si>
   <si>
-    <t>5</t>
+    <t>10</t>
   </si>
   <si>
     <t>5 (Jason)</t>
   </si>
   <si>
-    <t>Logout Button</t>
+    <t>Highlight command</t>
   </si>
   <si>
-    <t>8</t>
+    <t>15</t>
   </si>
   <si>
     <t>8 (Jason)</t>
   </si>
   <si>
-    <t>Settings Button</t>
+    <t>0015</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Multiple Levels</t>
   </si>
   <si>
-    <t>4 (Jason)</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>Obstacle Object</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have easily identifiable obstacles&gt; , because I want &lt;my goal to be clear&gt;.</t>
+    <t>As a &lt;player&gt;, I need to &lt;have levels become more complex&gt; , because I want to &lt;have an increasingly challenging game&gt;.</t>
   </si>
   <si>
     <t>Place Obstacle in Playfield</t>
@@ -124,13 +118,7 @@
     <t>14 (Ryan)</t>
   </si>
   <si>
-    <t>10 (Louis)</t>
-  </si>
-  <si>
     <t>Temporary Obstacle Graphics</t>
-  </si>
-  <si>
-    <t>5 (Louis)</t>
   </si>
   <si>
     <t>Set up Implementation of Blocking Player</t>
@@ -142,19 +130,17 @@
     <t>15 (Louis)</t>
   </si>
   <si>
-    <t>00020</t>
+    <t>0009</t>
   </si>
   <si>
-    <t>Character Object Placeholder</t>
+    <t xml:space="preserve">Victory </t>
   </si>
   <si>
-    <t>As a &lt;player&gt;, I need to  &lt;have a character to control&gt;, because I want to &lt;be able to traverse the levels&gt;</t>
+    <t xml:space="preserve">
+As a &lt;player&gt;, I need to &lt;have a victory screen&gt;, because I want to &lt;know when I beat the game&gt;.</t>
   </si>
   <si>
     <t>Initial Character Placement</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>7 (Louis)</t>
@@ -166,10 +152,10 @@
     <t>Temporary Character Graphics</t>
   </si>
   <si>
-    <t>Set Up Character Movement</t>
+    <t>3</t>
   </si>
   <si>
-    <t>30</t>
+    <t>Set Up Character Movement</t>
   </si>
   <si>
     <t>20 (Louis)</t>
@@ -311,14 +297,14 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,6 +320,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +441,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>21</v>
@@ -461,7 +450,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -481,25 +470,25 @@
     <row r="4">
       <c r="A4" s="11"/>
       <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -516,28 +505,32 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="11"/>
+    <row r="5" ht="36.75" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -554,32 +547,42 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="16" t="s">
+    <row r="6" ht="32.25" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>21</v>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>21</v>
+      <c r="L6" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -597,41 +600,27 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
+      <c r="A7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>33</v>
+      <c r="H7" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
+      <c r="J7" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
+      <c r="K7" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>21</v>
+      <c r="L7" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -648,28 +637,32 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="11"/>
+    <row r="8" ht="33.75" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="L8" s="13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -686,32 +679,42 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="12" t="s">
+    <row r="9" ht="23.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>21</v>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>42</v>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -728,42 +731,28 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
+    <row r="10" ht="23.25" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="G10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
+      <c r="I10" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>45</v>
+      <c r="J10" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>21</v>
+      <c r="L10" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -780,28 +769,32 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="11"/>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
+    <row r="11" ht="33.75" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17" t="s">
+        <v>47</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>15</v>
+      <c r="G11" s="17" t="s">
+        <v>19</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>49</v>
+      <c r="H11" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>21</v>
+      <c r="J11" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>21</v>
+      <c r="K11" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>21</v>
+      <c r="L11" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -819,32 +812,18 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -28248,7 +28227,6 @@
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
       <c r="E991" s="1"/>
       <c r="F991" s="1"/>
       <c r="G991" s="1"/>
@@ -28327,17 +28305,6 @@
       <c r="Z993" s="1"/>
     </row>
     <row r="994">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
       <c r="M994" s="1"/>
       <c r="N994" s="1"/>
       <c r="O994" s="1"/>
@@ -28401,40 +28368,24 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998">
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
